--- a/state_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
+++ b/state_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U206"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.820643005153192</v>
+        <v>0.820590703987405</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -732,7 +732,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0111691869637882</v>
+        <v>0.0111808623123795</v>
       </c>
       <c r="H4" t="n">
         <v>0.033</v>
@@ -813,7 +813,7 @@
         <v>0.011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0111691869637882</v>
+        <v>0.0111808623123795</v>
       </c>
       <c r="H5" t="n">
         <v>0.033</v>
@@ -1939,7 +1939,7 @@
         <v>0.037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06464498280447489</v>
+        <v>0.0646378193482504</v>
       </c>
       <c r="H19" t="n">
         <v>0.369</v>
@@ -2016,7 +2016,7 @@
         <v>0.037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06464498280447489</v>
+        <v>0.0646378193482504</v>
       </c>
       <c r="H20" t="n">
         <v>0.369</v>
@@ -2336,7 +2336,7 @@
         <v>0.011</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0104730526844809</v>
+        <v>0.0104791938456179</v>
       </c>
       <c r="H24" t="n">
         <v>0.026</v>
@@ -2417,7 +2417,7 @@
         <v>0.011</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0104730526844809</v>
+        <v>0.0104791938456179</v>
       </c>
       <c r="H25" t="n">
         <v>0.026</v>
@@ -3620,7 +3620,7 @@
         <v>0.041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.064423483377659</v>
+        <v>0.0644165587033087</v>
       </c>
       <c r="H40" t="n">
         <v>0.369</v>
@@ -3697,7 +3697,7 @@
         <v>0.041</v>
       </c>
       <c r="G41" t="n">
-        <v>0.064423483377659</v>
+        <v>0.0644165587033087</v>
       </c>
       <c r="H41" t="n">
         <v>0.369</v>
@@ -4017,7 +4017,7 @@
         <v>0.0095</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0095778657285877</v>
+        <v>0.0095849325406439</v>
       </c>
       <c r="H45" t="n">
         <v>0.026</v>
@@ -4098,7 +4098,7 @@
         <v>0.0095</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0095778657285877</v>
+        <v>0.0095849325406439</v>
       </c>
       <c r="H46" t="n">
         <v>0.026</v>
@@ -4596,7 +4596,7 @@
         <v>0.01501</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0152138920098627</v>
+        <v>0.0152318746332107</v>
       </c>
       <c r="H52" t="n">
         <v>0.0590564181842603</v>
@@ -4607,7 +4607,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M52" t="n">
         <v>0.02619</v>
@@ -4677,7 +4677,7 @@
         <v>0.01501</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0152138920098627</v>
+        <v>0.0152318746332107</v>
       </c>
       <c r="H53" t="n">
         <v>0.0590564181842603</v>
@@ -4688,7 +4688,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M53" t="n">
         <v>0.02619</v>
@@ -5301,7 +5301,7 @@
         <v>0.033</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0523068167109924</v>
+        <v>0.0522998920366421</v>
       </c>
       <c r="H61" t="n">
         <v>0.369</v>
@@ -5378,7 +5378,7 @@
         <v>0.033</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0523068167109924</v>
+        <v>0.0522998920366421</v>
       </c>
       <c r="H62" t="n">
         <v>0.369</v>
@@ -5698,7 +5698,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0101115088486069</v>
+        <v>0.0101181110423397</v>
       </c>
       <c r="H66" t="n">
         <v>0.049</v>
@@ -5779,7 +5779,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0101115088486069</v>
+        <v>0.0101181110423397</v>
       </c>
       <c r="H67" t="n">
         <v>0.049</v>
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.00646</v>
+        <v>0.00661</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0122524691923972</v>
+        <v>0.0122995037553796</v>
       </c>
       <c r="H73" t="n">
         <v>0.0590564181842603</v>
@@ -6288,7 +6288,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M73" t="n">
         <v>0.02558</v>
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.00646</v>
+        <v>0.00661</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0122524691923972</v>
+        <v>0.0122995037553796</v>
       </c>
       <c r="H74" t="n">
         <v>0.0590564181842603</v>
@@ -6369,7 +6369,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M74" t="n">
         <v>0.02558</v>
@@ -7379,7 +7379,7 @@
         <v>0.0095</v>
       </c>
       <c r="G87" t="n">
-        <v>0.011162982826715</v>
+        <v>0.0111672199334733</v>
       </c>
       <c r="H87" t="n">
         <v>0.049</v>
@@ -7460,7 +7460,7 @@
         <v>0.0095</v>
       </c>
       <c r="G88" t="n">
-        <v>0.011162982826715</v>
+        <v>0.0111672199334733</v>
       </c>
       <c r="H88" t="n">
         <v>0.049</v>
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.00592</v>
+        <v>0.00607</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0116981372604611</v>
+        <v>0.0117451718234435</v>
       </c>
       <c r="H94" t="n">
         <v>0.0590564181842603</v>
@@ -7969,7 +7969,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M94" t="n">
         <v>0.02176</v>
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.00592</v>
+        <v>0.00607</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0116981372604611</v>
+        <v>0.0117451718234435</v>
       </c>
       <c r="H95" t="n">
         <v>0.0590564181842603</v>
@@ -8050,7 +8050,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.00254</v>
+        <v>0.00257</v>
       </c>
       <c r="M95" t="n">
         <v>0.02176</v>
@@ -9060,7 +9060,7 @@
         <v>0.0105</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0122963161600484</v>
+        <v>0.0123005532668067</v>
       </c>
       <c r="H108" t="n">
         <v>0.049</v>
@@ -9141,7 +9141,7 @@
         <v>0.0105</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0122963161600484</v>
+        <v>0.0123005532668067</v>
       </c>
       <c r="H109" t="n">
         <v>0.049</v>
@@ -9639,7 +9639,7 @@
         <v>0.01134</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0143931220015054</v>
+        <v>0.0144496875245774</v>
       </c>
       <c r="H115" t="n">
         <v>0.0864663377272739</v>
@@ -9650,7 +9650,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.00561</v>
+        <v>0.00591</v>
       </c>
       <c r="M115" t="n">
         <v>0.02615</v>
@@ -9720,7 +9720,7 @@
         <v>0.01134</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0143931220015054</v>
+        <v>0.0144496875245774</v>
       </c>
       <c r="H116" t="n">
         <v>0.0864663377272739</v>
@@ -9731,7 +9731,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.00561</v>
+        <v>0.00591</v>
       </c>
       <c r="M116" t="n">
         <v>0.02615</v>
@@ -10660,13 +10660,13 @@
         <v>0.4</v>
       </c>
       <c r="G128" t="n">
-        <v>0.774893231730324</v>
+        <v>0.799897674280284</v>
       </c>
       <c r="H128" t="n">
         <v>2.58</v>
       </c>
       <c r="I128" t="n">
-        <v>2.194</v>
+        <v>2.30758</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -10677,7 +10677,7 @@
         <v>1.8</v>
       </c>
       <c r="N128" t="n">
-        <v>2.0306</v>
+        <v>2.1754</v>
       </c>
       <c r="O128" t="n">
         <v>1847797</v>
@@ -10741,7 +10741,7 @@
         <v>0.011</v>
       </c>
       <c r="G129" t="n">
-        <v>0.012859637628781</v>
+        <v>0.0128657011755503</v>
       </c>
       <c r="H129" t="n">
         <v>0.049</v>
@@ -10822,7 +10822,7 @@
         <v>0.011</v>
       </c>
       <c r="G130" t="n">
-        <v>0.012859637628781</v>
+        <v>0.0128657011755503</v>
       </c>
       <c r="H130" t="n">
         <v>0.049</v>
@@ -11320,7 +11320,7 @@
         <v>0.01221</v>
       </c>
       <c r="G136" t="n">
-        <v>0.014937599097097</v>
+        <v>0.0150008566457504</v>
       </c>
       <c r="H136" t="n">
         <v>0.0864663377272739</v>
@@ -11401,7 +11401,7 @@
         <v>0.01221</v>
       </c>
       <c r="G137" t="n">
-        <v>0.014937599097097</v>
+        <v>0.0150008566457504</v>
       </c>
       <c r="H137" t="n">
         <v>0.0864663377272739</v>
@@ -12260,13 +12260,13 @@
         <v>0.41</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8152541877399549</v>
+        <v>0.839365614484559</v>
       </c>
       <c r="H148" t="n">
         <v>2.34</v>
       </c>
       <c r="I148" t="n">
-        <v>2.191</v>
+        <v>2.2</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -12277,7 +12277,7 @@
         <v>1.8</v>
       </c>
       <c r="N148" t="n">
-        <v>2.0034</v>
+        <v>2.1706</v>
       </c>
       <c r="O148" t="n">
         <v>1847797</v>
@@ -12341,7 +12341,7 @@
         <v>0.013</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0133898509847763</v>
+        <v>0.0133937711902705</v>
       </c>
       <c r="H149" t="n">
         <v>0.049</v>
@@ -12422,7 +12422,7 @@
         <v>0.013</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0133898509847763</v>
+        <v>0.0133937711902705</v>
       </c>
       <c r="H150" t="n">
         <v>0.049</v>
@@ -12920,7 +12920,7 @@
         <v>0.01505</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0177230516663726</v>
+        <v>0.0177721683358035</v>
       </c>
       <c r="H156" t="n">
         <v>0.0864663377272739</v>
@@ -13001,7 +13001,7 @@
         <v>0.01505</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0177230516663726</v>
+        <v>0.0177721683358035</v>
       </c>
       <c r="H157" t="n">
         <v>0.0864663377272739</v>
@@ -13860,13 +13860,13 @@
         <v>0.4</v>
       </c>
       <c r="G168" t="n">
-        <v>0.737125544535004</v>
+        <v>0.7625512851395549</v>
       </c>
       <c r="H168" t="n">
-        <v>2.2</v>
+        <v>2.33447441113531</v>
       </c>
       <c r="I168" t="n">
-        <v>1.985</v>
+        <v>2.17</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -13874,10 +13874,10 @@
         <v>1.23</v>
       </c>
       <c r="M168" t="n">
-        <v>1.749</v>
+        <v>1.8</v>
       </c>
       <c r="N168" t="n">
-        <v>1.826</v>
+        <v>1.926</v>
       </c>
       <c r="O168" t="n">
         <v>1847797</v>
@@ -13941,7 +13941,7 @@
         <v>0.0125</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0127551601400682</v>
+        <v>0.0127570495607693</v>
       </c>
       <c r="H169" t="n">
         <v>0.048</v>
@@ -14022,7 +14022,7 @@
         <v>0.0125</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0127551601400682</v>
+        <v>0.0127570495607693</v>
       </c>
       <c r="H170" t="n">
         <v>0.048</v>
@@ -14520,7 +14520,7 @@
         <v>0.01511</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0180823837201156</v>
+        <v>0.0181046490819467</v>
       </c>
       <c r="H176" t="n">
         <v>0.0864663377272739</v>
@@ -14601,7 +14601,7 @@
         <v>0.01511</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0180823837201156</v>
+        <v>0.0181046490819467</v>
       </c>
       <c r="H177" t="n">
         <v>0.0864663377272739</v>
@@ -15460,13 +15460,13 @@
         <v>0.4</v>
       </c>
       <c r="G188" t="n">
-        <v>0.724196260042456</v>
+        <v>0.7516550497641999</v>
       </c>
       <c r="H188" t="n">
+        <v>2.33447441113531</v>
+      </c>
+      <c r="I188" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2.01</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15477,7 +15477,7 @@
         <v>1.8</v>
       </c>
       <c r="N188" t="n">
-        <v>1.858</v>
+        <v>1.958</v>
       </c>
       <c r="O188" t="n">
         <v>1847797</v>
@@ -15541,7 +15541,7 @@
         <v>0.014</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0131054416022537</v>
+        <v>0.0131074340822658</v>
       </c>
       <c r="H189" t="n">
         <v>0.029</v>
@@ -15622,7 +15622,7 @@
         <v>0.014</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0131054416022537</v>
+        <v>0.0131074340822658</v>
       </c>
       <c r="H190" t="n">
         <v>0.029</v>
@@ -16120,7 +16120,7 @@
         <v>0.0148</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0181698257052113</v>
+        <v>0.0181933055413241</v>
       </c>
       <c r="H196" t="n">
         <v>0.0864663377272739</v>
@@ -16201,7 +16201,7 @@
         <v>0.0148</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0181698257052113</v>
+        <v>0.0181933055413241</v>
       </c>
       <c r="H197" t="n">
         <v>0.0864663377272739</v>
@@ -16953,6 +16953,1606 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.3762</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.3765</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.4065</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.685023857357517</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2.33447441113531</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0125074340822658</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0125074340822658</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>380</v>
+      </c>
+      <c r="G211" t="n">
+        <v>3670.33333333333</v>
+      </c>
+      <c r="H211" t="n">
+        <v>98000</v>
+      </c>
+      <c r="I211" t="n">
+        <v>14472</v>
+      </c>
+      <c r="J211" t="n">
+        <v>46.2962962962963</v>
+      </c>
+      <c r="K211" t="n">
+        <v>59.2592592592593</v>
+      </c>
+      <c r="L211" t="n">
+        <v>185</v>
+      </c>
+      <c r="M211" t="n">
+        <v>3300</v>
+      </c>
+      <c r="N211" t="n">
+        <v>8702.799999999999</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>380</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3670.33333333333</v>
+      </c>
+      <c r="H212" t="n">
+        <v>98000</v>
+      </c>
+      <c r="I212" t="n">
+        <v>14472</v>
+      </c>
+      <c r="J212" t="n">
+        <v>46.2962962962963</v>
+      </c>
+      <c r="K212" t="n">
+        <v>59.2592592592593</v>
+      </c>
+      <c r="L212" t="n">
+        <v>185</v>
+      </c>
+      <c r="M212" t="n">
+        <v>3300</v>
+      </c>
+      <c r="N212" t="n">
+        <v>8702.799999999999</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>380</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3670.33333333333</v>
+      </c>
+      <c r="H213" t="n">
+        <v>98000</v>
+      </c>
+      <c r="I213" t="n">
+        <v>14472</v>
+      </c>
+      <c r="J213" t="n">
+        <v>46.2962962962963</v>
+      </c>
+      <c r="K213" t="n">
+        <v>59.2592592592593</v>
+      </c>
+      <c r="L213" t="n">
+        <v>185</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3300</v>
+      </c>
+      <c r="N213" t="n">
+        <v>8702.799999999999</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>380</v>
+      </c>
+      <c r="G214" t="n">
+        <v>3670.33333333333</v>
+      </c>
+      <c r="H214" t="n">
+        <v>98000</v>
+      </c>
+      <c r="I214" t="n">
+        <v>14472</v>
+      </c>
+      <c r="J214" t="n">
+        <v>46.2962962962963</v>
+      </c>
+      <c r="K214" t="n">
+        <v>59.2592592592593</v>
+      </c>
+      <c r="L214" t="n">
+        <v>185</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3300</v>
+      </c>
+      <c r="N214" t="n">
+        <v>8702.799999999999</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>106.32</v>
+      </c>
+      <c r="G215" t="n">
+        <v>107.198</v>
+      </c>
+      <c r="H215" t="n">
+        <v>113</v>
+      </c>
+      <c r="I215" t="n">
+        <v>113</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>108.335</v>
+      </c>
+      <c r="M215" t="n">
+        <v>112.5345</v>
+      </c>
+      <c r="N215" t="n">
+        <v>113</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.016931562418892</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.0628709597299737</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.01457</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.02936</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.03823</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0137</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.016931562418892</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.0628709597299737</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.01457</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.02936</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.03823</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.628254545454545</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.72995</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.628254545454545</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.72995</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.8732</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4.501</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="I220" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M220" t="n">
+        <v>5.3531</v>
+      </c>
+      <c r="N220" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.658509090909091</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.01325</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.74885</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.9042</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.658509090909091</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.01325</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.74885</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.9042</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.08109090909091</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2.1275</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1.08109090909091</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2.1275</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.67525</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.67525</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.2109</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
+++ b/state_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
@@ -10660,13 +10660,13 @@
         <v>0.4</v>
       </c>
       <c r="G128" t="n">
-        <v>0.799897674280284</v>
+        <v>0.770327824707112</v>
       </c>
       <c r="H128" t="n">
         <v>2.58</v>
       </c>
       <c r="I128" t="n">
-        <v>2.30758</v>
+        <v>2.194</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -10677,7 +10677,7 @@
         <v>1.8</v>
       </c>
       <c r="N128" t="n">
-        <v>2.1754</v>
+        <v>2.0306</v>
       </c>
       <c r="O128" t="n">
         <v>1847797</v>
@@ -12260,13 +12260,13 @@
         <v>0.41</v>
       </c>
       <c r="G148" t="n">
-        <v>0.839365614484559</v>
+        <v>0.810851830967572</v>
       </c>
       <c r="H148" t="n">
         <v>2.34</v>
       </c>
       <c r="I148" t="n">
-        <v>2.2</v>
+        <v>2.191</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -12277,7 +12277,7 @@
         <v>1.8</v>
       </c>
       <c r="N148" t="n">
-        <v>2.1706</v>
+        <v>2.0034</v>
       </c>
       <c r="O148" t="n">
         <v>1847797</v>
@@ -13860,13 +13860,13 @@
         <v>0.4</v>
       </c>
       <c r="G168" t="n">
-        <v>0.7625512851395549</v>
+        <v>0.732423513876324</v>
       </c>
       <c r="H168" t="n">
-        <v>2.33447441113531</v>
+        <v>2.2</v>
       </c>
       <c r="I168" t="n">
-        <v>2.17</v>
+        <v>1.985</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -13874,10 +13874,10 @@
         <v>1.23</v>
       </c>
       <c r="M168" t="n">
-        <v>1.8</v>
+        <v>1.749</v>
       </c>
       <c r="N168" t="n">
-        <v>1.926</v>
+        <v>1.826</v>
       </c>
       <c r="O168" t="n">
         <v>1847797</v>
@@ -15460,13 +15460,13 @@
         <v>0.4</v>
       </c>
       <c r="G188" t="n">
-        <v>0.7516550497641999</v>
+        <v>0.7190678686019299</v>
       </c>
       <c r="H188" t="n">
-        <v>2.33447441113531</v>
+        <v>2.2</v>
       </c>
       <c r="I188" t="n">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15477,7 +15477,7 @@
         <v>1.8</v>
       </c>
       <c r="N188" t="n">
-        <v>1.958</v>
+        <v>1.858</v>
       </c>
       <c r="O188" t="n">
         <v>1847797</v>
@@ -17060,13 +17060,13 @@
         <v>0.3</v>
       </c>
       <c r="G208" t="n">
-        <v>0.685023857357517</v>
+        <v>0.6503114252498809</v>
       </c>
       <c r="H208" t="n">
-        <v>2.33447441113531</v>
+        <v>2.2</v>
       </c>
       <c r="I208" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
         <v>1.8</v>
       </c>
       <c r="N208" t="n">
-        <v>1.982</v>
+        <v>1.882</v>
       </c>
       <c r="O208" t="n">
         <v>1847797</v>
